--- a/biology/Botanique/Stapelia_hirsuta/Stapelia_hirsuta.xlsx
+++ b/biology/Botanique/Stapelia_hirsuta/Stapelia_hirsuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stapelia hirsuta[2],  nom commun Fleur étoiles de mer ou de Plante  charogne, est une espèce de plantes à fleurs de la famille des Apocynaceae[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stapelia hirsuta,  nom commun Fleur étoiles de mer ou de Plante  charogne, est une espèce de plantes à fleurs de la famille des Apocynaceae,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Nom et Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Stapelia a été nommé en l'honneur de Johannes van Stapel, qui a décrit la première à plante découverte, le nom d'espèce vient du Latin hirsutus, qui signifie « poilu »[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Stapelia a été nommé en l'honneur de Johannes van Stapel, qui a décrit la première à plante découverte, le nom d'espèce vient du Latin hirsutus, qui signifie « poilu ».
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parties végétatives
-Les tiges de Stapelia hirsuta  sont subquadrangulaire  allant jusqu'à 20 cm de haut. Des rainures concave  courent verticalement le long de la tige, entre les quatre angles. Cette caractéristique distingue S. hirsuta de nombreuses autres espècesStapelia  avec lesquelles elle est naturellement proche (par exemple, Stapelia rufa, Stapelia engleriana), et qui ont généralement des tiges qui sont également subquadrangular, mais qui sont plus arrondie en section transversale[6],[7].
-Les caractéristiques florales
-Stapelia hirsuta a des fleurs plates, très velues, rouge foncé et ressemblant à de la viande pourrissante. La corolle peut atteindre une largeur d'environ 5 à 15 cm. Fleur cadavre, son odeur de charogne sert pour attirer des pollinisateurs divers, plus particulièrement des mouches. La période de floraison s'étend de la fin de l'été à la fin de l'automne.
+          <t>Parties végétatives</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges de Stapelia hirsuta  sont subquadrangulaire  allant jusqu'à 20 cm de haut. Des rainures concave  courent verticalement le long de la tige, entre les quatre angles. Cette caractéristique distingue S. hirsuta de nombreuses autres espècesStapelia  avec lesquelles elle est naturellement proche (par exemple, Stapelia rufa, Stapelia engleriana), et qui ont généralement des tiges qui sont également subquadrangular, mais qui sont plus arrondie en section transversale,.
 </t>
         </is>
       </c>
@@ -573,48 +590,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les caractéristiques florales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stapelia hirsuta a des fleurs plates, très velues, rouge foncé et ressemblant à de la viande pourrissante. La corolle peut atteindre une largeur d'environ 5 à 15 cm. Fleur cadavre, son odeur de charogne sert pour attirer des pollinisateurs divers, plus particulièrement des mouches. La période de floraison s'étend de la fin de l'été à la fin de l'automne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stapelia_hirsuta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stapelia_hirsuta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Sous-espèce</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Stapelia hirsuta var. baylissii
 Stapelia hirsuta var. gariepensis
 Stapelia hirsuta var. tsomoensis
 Stapelia hirsuta var. vetula
-[3]
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Stapelia_hirsuta</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Stapelia_hirsuta</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Afrique du Sud et du sud de la Namibie[5].
-Sa large aire de répartition s'étend le long de la limite sud de la zone aride de la région du Karoo , dans le "Little Karoo" dans le sud du Cap, à l'ouest jusqu'à Robertson Karoo et le Swartland jusque la limite externe de du Cap. Elle peut être trouvée dans la plupart des régions avec une pluviométrie hivernale , à l'extrême ouest de la Ville l'Afrique du Sud, vers le nord à travers le Namaqualand, aussi loin au nord que le sud de la Namibie. Elle est absente de l'intérieur de l'Afrique du Sud[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Afrique du Sud et du sud de la Namibie.
+Sa large aire de répartition s'étend le long de la limite sud de la zone aride de la région du Karoo , dans le "Little Karoo" dans le sud du Cap, à l'ouest jusqu'à Robertson Karoo et le Swartland jusque la limite externe de du Cap. Elle peut être trouvée dans la plupart des régions avec une pluviométrie hivernale , à l'extrême ouest de la Ville l'Afrique du Sud, vers le nord à travers le Namaqualand, aussi loin au nord que le sud de la Namibie. Elle est absente de l'intérieur de l'Afrique du Sud.
 </t>
         </is>
       </c>
